--- a/2-calidad/3-documentos-gestion-calidad/FICHAS Y FORMULARIOS TIPO/Control Limpieza Areas de Servicio.xlsx
+++ b/2-calidad/3-documentos-gestion-calidad/FICHAS Y FORMULARIOS TIPO/Control Limpieza Areas de Servicio.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="9975"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="9975" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ASCENSORES" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="CAMARINES" sheetId="4" r:id="rId4"/>
     <sheet name="COCINAS Y COMEDORES" sheetId="5" r:id="rId5"/>
     <sheet name="TERRAZAS" sheetId="6" r:id="rId6"/>
+    <sheet name="REPORTE" sheetId="7" r:id="rId7"/>
+    <sheet name="INSTRUCCIONES USO REPORTE" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">TERRAZAS!$B$1:$H$52</definedName>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="65">
   <si>
     <t>FIRMA</t>
   </si>
@@ -192,6 +194,92 @@
   <si>
     <t>Profunda: Lavado con agua y detergente o productos similares</t>
   </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>CODIGO ESPACIO / DESCRIPCION</t>
+  </si>
+  <si>
+    <t>GESTION</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>TURNO</t>
+  </si>
+  <si>
+    <t>SUPERVISOR</t>
+  </si>
+  <si>
+    <t>HORARIO</t>
+  </si>
+  <si>
+    <t>INSTRUCCIONES DE USO Y CARGA DE DATOS POR COLUMNA:</t>
+  </si>
+  <si>
+    <t>FECHA: Fecha de inspección con formato DD/MM/YYYY.</t>
+  </si>
+  <si>
+    <t>CODIGO ESPACIO / DESCRIPCION: Código de espacio físico según archivo enviado ...</t>
+  </si>
+  <si>
+    <t>GESTION: Identifica si la planilla se encuentra completa, puede ser: SI o NO.</t>
+  </si>
+  <si>
+    <t>ESTADO: Valor numérico que representa una puntuación de 1 a 5 siendo 1=sucio y 5=limpio.</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES: Observaciones generales.</t>
+  </si>
+  <si>
+    <r>
+      <t>TURNO: Código de turno: TM=Turno </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Mañana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, TT=Turno Tarde, TN=Turno Noche.</t>
+    </r>
+  </si>
+  <si>
+    <t>SUPERVISOR: Nombre del supervidor.</t>
+  </si>
+  <si>
+    <t>DESCRIPCION DE "NUMEROS" SEGÚN SU CRITERIO DE REFERENCIA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muy sucio y sin insumos </t>
+  </si>
+  <si>
+    <t>Limpieza regular - insumos insuficientes</t>
+  </si>
+  <si>
+    <t>Limpieza buena - faltante de insumos</t>
+  </si>
+  <si>
+    <t>Limpieza muy buena - insumos suficientes</t>
+  </si>
+  <si>
+    <t>Limpieza Impecable - insumos completos</t>
+  </si>
 </sst>
 </file>
 
@@ -200,7 +288,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,13 +351,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF336699"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="19">
@@ -486,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -567,6 +681,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,6 +749,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1452,8 +1581,8 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,31 +1597,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
@@ -1531,17 +1660,17 @@
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="46" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
@@ -1553,11 +1682,11 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -1565,48 +1694,48 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="12"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1720,16 +1849,18 @@
       <c r="D25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="58"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="65">
+        <v>42562</v>
+      </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -1748,31 +1879,31 @@
       <c r="H27" s="27"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="45"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="53"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="45"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="53"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
@@ -1793,17 +1924,17 @@
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="46" t="s">
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="47"/>
-      <c r="H33" s="48"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="56"/>
     </row>
     <row r="34" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="16"/>
@@ -1815,58 +1946,58 @@
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="15"/>
     </row>
     <row r="36" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
       <c r="H36" s="15"/>
     </row>
     <row r="37" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="12"/>
       <c r="H37" s="15"/>
     </row>
     <row r="38" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="15"/>
     </row>
     <row r="39" spans="2:8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
       <c r="H39" s="15"/>
     </row>
     <row r="40" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1979,16 +2110,18 @@
       <c r="D50" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="50"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="2:8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B51" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="8"/>
+      <c r="C51" s="65">
+        <v>42562</v>
+      </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -2093,8 +2226,8 @@
   </sheetPr>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,31 +2242,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
@@ -2172,17 +2305,17 @@
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="46" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
@@ -2194,11 +2327,11 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -2402,16 +2535,18 @@
       <c r="D29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="58"/>
     </row>
     <row r="30" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="65">
+        <v>42562</v>
+      </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -2430,31 +2565,31 @@
       <c r="H31" s="27"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="42"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="50"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="45"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="53"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="45"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="53"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="14"/>
@@ -2475,17 +2610,17 @@
       <c r="H36" s="15"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="46" t="s">
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="47"/>
-      <c r="H37" s="48"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="56"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="16"/>
@@ -2497,11 +2632,11 @@
       <c r="H38" s="15"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -2705,16 +2840,18 @@
       <c r="D58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="50"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="58"/>
     </row>
     <row r="59" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B59" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="8"/>
+      <c r="C59" s="65">
+        <v>42562</v>
+      </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -2811,8 +2948,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,31 +2964,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
@@ -2890,17 +3027,17 @@
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="46" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
@@ -2912,11 +3049,11 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -3087,16 +3224,18 @@
       <c r="D26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="50"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="58"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="65">
+        <v>42562</v>
+      </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -3115,31 +3254,31 @@
       <c r="H28" s="27"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="40"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="45"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="53"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="53"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
@@ -3160,17 +3299,17 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="46" t="s">
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="47"/>
-      <c r="H34" s="48"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="56"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="16"/>
@@ -3182,11 +3321,11 @@
       <c r="H35" s="15"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
@@ -3357,16 +3496,18 @@
       <c r="D52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="50"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="58"/>
     </row>
     <row r="53" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B53" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="8"/>
+      <c r="C53" s="65">
+        <v>42562</v>
+      </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -3463,8 +3604,8 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:H30"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3479,31 +3620,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
@@ -3542,17 +3683,17 @@
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="46" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
@@ -3564,50 +3705,50 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="12"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -3720,16 +3861,18 @@
       <c r="D25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="58"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="65">
+        <v>42562</v>
+      </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -3748,31 +3891,31 @@
       <c r="H27" s="27"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="45"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="53"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="45"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="53"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
@@ -3793,17 +3936,17 @@
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="46" t="s">
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="47"/>
-      <c r="H33" s="48"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="56"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="16"/>
@@ -3815,50 +3958,50 @@
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="15"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
       <c r="H36" s="15"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="53"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="12"/>
       <c r="H37" s="15"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="15"/>
     </row>
     <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
       <c r="H39" s="15"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -3971,16 +4114,18 @@
       <c r="D50" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="50"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B51" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="8"/>
+      <c r="C51" s="65">
+        <v>42562</v>
+      </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -4085,8 +4230,8 @@
   </sheetPr>
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E8"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4101,31 +4246,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
@@ -4164,17 +4309,17 @@
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="46" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
@@ -4186,11 +4331,11 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -4372,16 +4517,18 @@
       <c r="D27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="58"/>
     </row>
     <row r="28" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="65">
+        <v>42562</v>
+      </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -4400,31 +4547,31 @@
       <c r="H29" s="27"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="40"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="53"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="45"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
@@ -4445,17 +4592,17 @@
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="46" t="s">
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="56"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="16"/>
@@ -4467,11 +4614,11 @@
       <c r="H36" s="15"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -4653,16 +4800,18 @@
       <c r="D54" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="50"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="58"/>
     </row>
     <row r="55" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B55" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="8"/>
+      <c r="C55" s="65">
+        <v>42562</v>
+      </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -4759,8 +4908,8 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H3"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4775,31 +4924,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
@@ -4838,17 +4987,17 @@
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="46" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
@@ -4860,54 +5009,54 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="12"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -5020,16 +5169,18 @@
       <c r="D25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="58"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="65">
+        <v>42562</v>
+      </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -5048,31 +5199,31 @@
       <c r="H27" s="27"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="45"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="53"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="45"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="53"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
@@ -5093,17 +5244,17 @@
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="46" t="s">
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="47"/>
-      <c r="H33" s="48"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="56"/>
     </row>
     <row r="34" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="16"/>
@@ -5115,54 +5266,54 @@
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="15"/>
     </row>
     <row r="36" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
       <c r="H36" s="15"/>
     </row>
     <row r="37" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="12"/>
       <c r="H37" s="15"/>
     </row>
     <row r="38" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="15"/>
     </row>
     <row r="39" spans="2:8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
       <c r="H39" s="15"/>
     </row>
     <row r="40" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5275,16 +5426,18 @@
       <c r="D50" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="50"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="2:8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B51" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="8"/>
+      <c r="C51" s="65">
+        <v>42562</v>
+      </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -5380,4 +5533,476 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="42">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="42">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="42">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="42">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="42">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>